--- a/biology/Zoologie/Zone_de_protection_marine_du_Gully/Zone_de_protection_marine_du_Gully.xlsx
+++ b/biology/Zoologie/Zone_de_protection_marine_du_Gully/Zone_de_protection_marine_du_Gully.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone de protection marine du Gully (anglais : The Gully Marine Protected Area) est une zone de protection marine du Canada située au large de la Nouvelle-Écosse. Cette aire protégée de 2 364 km2 créée en 2004 protège un canyon sous-marin de 65 km de long par 15 km de large.  La profondeur de celui-ci va de quelques dizaines de mètres à une profondeur maximale de 3 140 m, ce qui en fait l'aire protégée la plus profonde du pays[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de protection marine du Gully (anglais : The Gully Marine Protected Area) est une zone de protection marine du Canada située au large de la Nouvelle-Écosse. Cette aire protégée de 2 364 km2 créée en 2004 protège un canyon sous-marin de 65 km de long par 15 km de large.  La profondeur de celui-ci va de quelques dizaines de mètres à une profondeur maximale de 3 140 m, ce qui en fait l'aire protégée la plus profonde du pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gully est située à 200 km au sud de la Nouvelle-Écosse, à l'est de l'île de Sable.  L'aire protégée comprend le canyon sous-marin ainsi que le plateau continental et la plaine abyssale adjacentes.  Le canyon lui-même est une entaille dans la plate-forme néo-écossaise.
 </t>
@@ -542,9 +556,11 @@
           <t>Milieu naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve dans le Gully 21 espèces de coraux, ce qui en fait la plus grande biodiversité du Canada Atlantique[2]. On y retrouve une population de 130 individus de baleine à bec commune, population qui est considéré en voie de disparition par le comité sur la situation des espèces en péril au Canada[3].  En plus de la baleine à bec commune, 13 autres espèces de mammifères marin fréquentent le Gully[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve dans le Gully 21 espèces de coraux, ce qui en fait la plus grande biodiversité du Canada Atlantique. On y retrouve une population de 130 individus de baleine à bec commune, population qui est considéré en voie de disparition par le comité sur la situation des espèces en péril au Canada.  En plus de la baleine à bec commune, 13 autres espèces de mammifères marin fréquentent le Gully.
 </t>
         </is>
       </c>
